--- a/ejercicios.xlsx
+++ b/ejercicios.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS 10 PRO\Documents\II-2024\SIS254\desafio3\desafio4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9FE806-126A-446B-B2BB-A681BA8710A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F6601F-94F7-40E4-9417-A72308E634B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E878BE34-6E26-48BE-AB88-A66561AF82EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{E878BE34-6E26-48BE-AB88-A66561AF82EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej1" sheetId="1" r:id="rId1"/>
     <sheet name="Ej2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ej3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>a=</t>
   </si>
@@ -128,6 +129,69 @@
   </si>
   <si>
     <t>Error relativo</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>eS</t>
+  </si>
+  <si>
+    <t>Q=</t>
+  </si>
+  <si>
+    <t>Derivadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para f(n) = </t>
+  </si>
+  <si>
+    <t>para f(s)=</t>
+  </si>
+  <si>
+    <t>Res=</t>
+  </si>
+  <si>
+    <t>Q+</t>
+  </si>
+  <si>
+    <t>Q-</t>
+  </si>
+  <si>
+    <t>(-1/n^2)*</t>
+  </si>
+  <si>
+    <t>Resultado de la derivada</t>
+  </si>
+  <si>
+    <t>*1/2*(s^-1/2)</t>
+  </si>
+  <si>
+    <t>Resultado aplicando derivada parcial y multiplicando por su error</t>
+  </si>
+  <si>
+    <t>Rango de error para Q</t>
+  </si>
+  <si>
+    <t>La variable que se debería intentar medir para una mejor precision</t>
+  </si>
+  <si>
+    <t>debería ser la variable de la pendiente, puesto que al derivar</t>
+  </si>
+  <si>
+    <t>con respecto a esta variable, su resultado se aleja del punto 0</t>
   </si>
 </sst>
 </file>
@@ -143,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +256,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -220,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,6 +322,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,6 +430,143 @@
         <a:xfrm>
           <a:off x="3428999" y="185615"/>
           <a:ext cx="5127045" cy="836416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>105523</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB690A05-EA37-4F28-8923-AF95293A3C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868680" y="220980"/>
+          <a:ext cx="5576683" cy="3349477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>226737</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DFA8AF-156D-4DBC-A093-AC0EBCE55F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="3779520"/>
+          <a:ext cx="1186857" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFB4ECE-E3BE-45A5-A0FD-E5CAF92EFC19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440680" y="4579621"/>
+          <a:ext cx="899160" cy="563281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BBD954-E854-4A30-B003-AEBAAFCF589E}">
   <dimension ref="B9:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -1184,4 +1407,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABEE8E8-7EB0-43DD-B3DF-13AD650B703E}">
+  <dimension ref="B22:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <f>(-1/(D23^2))*(((B23*C23)^(5/3))/((B23+(2*C23))^(2/3)))*(E23^(1/2))</f>
+        <v>-50.737070542906913</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="3">
+        <f>0.0003*1/10</f>
+        <v>2.9999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <f>(1/D23)*(((B23*C23)^(5/3))/((B23+(2*C23))^(2/3)))*(E23^(1/2))</f>
+        <v>1.5221121162872078</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <f>(1/D23)*(((B23*C23)^(5/3))/((B23+(2*C23))^(2/3)))*(1/2)*(E23^(-1/2))</f>
+        <v>2536.8535271453461</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32">
+        <f>(K23*D25)+(K27*E25)</f>
+        <v>-7.6105605814360378E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="3">
+        <f>C27+H32</f>
+        <v>1.4460065104728475</v>
+      </c>
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="3">
+        <f>C27-H32</f>
+        <v>1.5982177221015681</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>